--- a/model/results/mix2_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="6">
@@ -851,7 +851,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2746514.819337418</v>
+        <v>2746514.819337421</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2588560.000000005</v>
+        <v>2588560.000000024</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="7">
@@ -925,7 +925,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1255386.666666663</v>
+        <v>1255386.666666667</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3565064.362993851</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1639639.999999996</v>
+        <v>2510773.333333333</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3565064.362993851</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="9">
@@ -1073,7 +1073,7 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2895026.666666663</v>
+        <v>2895026.666666667</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4534666.666666655</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1093765.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="10">
@@ -1147,7 +1147,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4150413.333333329</v>
+        <v>4150413.333333338</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4534666.666666655</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>1117036.8</v>
       </c>
       <c r="M10" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4150413.33333332</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4534666.666666655</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>1163580</v>
       </c>
       <c r="M11" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2588560</v>
+        <v>2588560.000000002</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4534666.666666674</v>
+        <v>4534666.666666691</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>1163580</v>
       </c>
       <c r="M12" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="13">
@@ -1369,13 +1369,13 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>192126.6666666704</v>
+        <v>192126.6666666719</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4534666.666666674</v>
+        <v>4534666.66666669</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>1163580</v>
       </c>
       <c r="M13" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="14">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>192126.6666666705</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4150413.333333335</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4534666.666666674</v>
+        <v>4534666.666666667</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1163580</v>
       </c>
       <c r="M14" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="15">
@@ -1517,7 +1517,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1341329.615384611</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4150413.333333317</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4534666.666666674</v>
+        <v>4534666.666666691</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>1163580</v>
       </c>
       <c r="M15" t="n">
-        <v>1163580</v>
+        <v>1163580.000000001</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="16">
@@ -1591,7 +1591,7 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>1216590.660160736</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4150413.333333333</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G16" t="n">
-        <v>874176.3333333299</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4217514.288557212</v>
+        <v>4217514.288557258</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="17">
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>1216590.660160736</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4150413.333333356</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>874176.3333333308</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4217514.288557244</v>
+        <v>4217514.288557258</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>1216590.660160736</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1754,13 +1754,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>874176.3333333294</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4217514.288557219</v>
+        <v>4217514.288557276</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="19">
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>1216590.660160736</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4150413.333333343</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G19" t="n">
-        <v>874176.3333333307</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4217514.288557219</v>
+        <v>4217514.288557271</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="20">
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>1216590.660160736</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1902,13 +1902,13 @@
         <v>4150413.333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>874176.3333333289</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4217514.288557219</v>
+        <v>4217514.288557239</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
     <row r="21">
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>1216590.66016074</v>
+        <v>1216590.660160735</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4150413.333333333</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G21" t="n">
-        <v>874176.3333333288</v>
+        <v>874176.3333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4217514.288557237</v>
+        <v>4217514.288557258</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>136240.0000000001</v>
+        <v>136239.9999999997</v>
       </c>
     </row>
   </sheetData>
